--- a/duplicated.xlsx
+++ b/duplicated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,22 +454,30 @@
           <t>bucket 4</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>2008</v>
       </c>
       <c r="B2" t="n">
-        <v>336</v>
+        <v>724</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2641266514465362</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +485,19 @@
         <v>2009</v>
       </c>
       <c r="B3" t="n">
-        <v>260</v>
+        <v>444</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1943870936764777</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +505,19 @@
         <v>2010</v>
       </c>
       <c r="B4" t="n">
-        <v>314</v>
+        <v>711</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D4" t="n">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2310839191816017</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +525,19 @@
         <v>2011</v>
       </c>
       <c r="B5" t="n">
-        <v>792</v>
+        <v>1467</v>
       </c>
       <c r="C5" t="n">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="D5" t="n">
-        <v>433</v>
+        <v>901</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>69</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3278951591334581</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +545,19 @@
         <v>2012</v>
       </c>
       <c r="B6" t="n">
-        <v>890</v>
+        <v>1515</v>
       </c>
       <c r="C6" t="n">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="D6" t="n">
-        <v>1271</v>
+        <v>1596</v>
       </c>
       <c r="E6" t="n">
-        <v>135</v>
+        <v>237</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3271662694061414</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +565,19 @@
         <v>2013</v>
       </c>
       <c r="B7" t="n">
-        <v>1361</v>
+        <v>2075</v>
       </c>
       <c r="C7" t="n">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="D7" t="n">
-        <v>570</v>
+        <v>791</v>
       </c>
       <c r="E7" t="n">
-        <v>165</v>
+        <v>225</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2828795569912321</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +585,19 @@
         <v>2014</v>
       </c>
       <c r="B8" t="n">
-        <v>1022</v>
+        <v>1462</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>375</v>
+        <v>736</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>138</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2359533281384571</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +605,19 @@
         <v>2015</v>
       </c>
       <c r="B9" t="n">
-        <v>824</v>
+        <v>1414</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>411</v>
+        <v>676</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>244</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2280955389864779</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +625,19 @@
         <v>2016</v>
       </c>
       <c r="B10" t="n">
-        <v>671</v>
+        <v>1089</v>
       </c>
       <c r="C10" t="n">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="D10" t="n">
-        <v>3283</v>
+        <v>3572</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>166</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2229006095894024</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +645,19 @@
         <v>2017</v>
       </c>
       <c r="B11" t="n">
-        <v>510</v>
+        <v>923</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D11" t="n">
-        <v>2120</v>
+        <v>2424</v>
       </c>
       <c r="E11" t="n">
-        <v>199</v>
+        <v>279</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1732431549040807</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +665,19 @@
         <v>2018</v>
       </c>
       <c r="B12" t="n">
-        <v>436</v>
+        <v>994</v>
       </c>
       <c r="C12" t="n">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="D12" t="n">
-        <v>4745</v>
+        <v>5093</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1827445203086192</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +685,19 @@
         <v>2019</v>
       </c>
       <c r="B13" t="n">
-        <v>1005</v>
+        <v>1704</v>
       </c>
       <c r="C13" t="n">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="D13" t="n">
-        <v>4746</v>
+        <v>5194</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>124</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1968538679200038</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +705,19 @@
         <v>2020</v>
       </c>
       <c r="B14" t="n">
-        <v>668</v>
+        <v>1218</v>
       </c>
       <c r="C14" t="n">
-        <v>319</v>
+        <v>524</v>
       </c>
       <c r="D14" t="n">
-        <v>835</v>
+        <v>1242</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1947103972147492</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +725,19 @@
         <v>2021</v>
       </c>
       <c r="B15" t="n">
-        <v>1864</v>
+        <v>3806</v>
       </c>
       <c r="C15" t="n">
-        <v>3482</v>
+        <v>4578</v>
       </c>
       <c r="D15" t="n">
-        <v>2988</v>
+        <v>4299</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>170</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2830964960737997</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +745,19 @@
         <v>2022</v>
       </c>
       <c r="B16" t="n">
-        <v>3092</v>
+        <v>5342</v>
       </c>
       <c r="C16" t="n">
-        <v>2952</v>
+        <v>4157</v>
       </c>
       <c r="D16" t="n">
-        <v>3966</v>
+        <v>5338</v>
       </c>
       <c r="E16" t="n">
-        <v>416</v>
+        <v>556</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3318081534452982</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +765,19 @@
         <v>2023</v>
       </c>
       <c r="B17" t="n">
-        <v>1629</v>
+        <v>2676</v>
       </c>
       <c r="C17" t="n">
-        <v>896</v>
+        <v>1413</v>
       </c>
       <c r="D17" t="n">
-        <v>1350</v>
+        <v>1788</v>
       </c>
       <c r="E17" t="n">
-        <v>98</v>
+        <v>159</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3049854896052134</v>
       </c>
     </row>
   </sheetData>
